--- a/src/main/java/com/test/data/testData.xlsx
+++ b/src/main/java/com/test/data/testData.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>testcase</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test_001</t>
   </si>
@@ -58,23 +46,14 @@
   <si>
     <t>成功</t>
   </si>
-  <si>
-    <t>test_002</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -87,9 +66,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,28 +96,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,8 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,54 +166,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,8 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,67 +219,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,115 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,36 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +443,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -510,6 +474,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.3" style="1" customWidth="1"/>
@@ -1054,11 +1033,11 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:4">
+    <row r="1" ht="344" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1066,34 +1045,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="344" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="351" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
